--- a/CP058/Default.xlsx
+++ b/CP058/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>e_WIC_ValidaCli</t>
   </si>
@@ -28,7 +28,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>8958080008100291852</t>
+    <t>8958080008100291845</t>
   </si>
   <si>
     <t>s_Resultado</t>
@@ -55,7 +55,7 @@
     <t>Timer</t>
   </si>
   <si>
-    <t>Plan Mi Movistar Total 12GB</t>
+    <t>Pasaporte</t>
   </si>
   <si>
     <t>e_Financiamiento_Externo</t>
@@ -79,9 +79,6 @@
     <t>e_MetodoPago</t>
   </si>
   <si>
-    <t>123900000144181</t>
-  </si>
-  <si>
     <t>e_Usuario</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
     <t>Producto_Origen</t>
   </si>
   <si>
+    <t>RV Plan Ilimitado Mi Movistar S/ 65.9 :</t>
+  </si>
+  <si>
     <t>e_CR3988</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>e_Plan_Financiamiento</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>Operador_Origen</t>
   </si>
   <si>
@@ -200,6 +197,12 @@
   </si>
   <si>
     <t>En Tienda</t>
+  </si>
+  <si>
+    <t>123900000144173</t>
+  </si>
+  <si>
+    <t>000002974</t>
   </si>
   <si>
     <t>Tipo_Plan</t>
@@ -388,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -407,6 +410,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -731,8 +737,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -743,7 +749,7 @@
     <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="51.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
@@ -769,73 +775,73 @@
         <v>0</v>
       </c>
       <c t="s">
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
         <v>57</v>
       </c>
       <c t="s">
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+      <c t="s">
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
         <v>25</v>
       </c>
       <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>4</v>
       </c>
       <c t="s">
         <v>54</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>55</v>
       </c>
       <c t="s">
         <v>10</v>
@@ -849,29 +855,29 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="4" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" t="s">
         <v>52</v>
       </c>
       <c s="1" t="s">
-        <v>52</v>
-      </c>
-      <c s="4" t="s">
-        <v>24</v>
-      </c>
-      <c s="4" t="s">
-        <v>24</v>
-      </c>
-      <c s="4" t="s">
-        <v>53</v>
-      </c>
-      <c s="1" t="s">
-        <v>11</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c s="1" t="s">
+        <v>35</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
@@ -881,19 +887,19 @@
         <v>17</v>
       </c>
       <c s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
       </c>
       <c s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="5" t="s">
         <v>2</v>
       </c>
       <c s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -936,13 +942,13 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s">
         <v>14</v>
       </c>
       <c t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s">
         <v>48</v>
@@ -951,7 +957,7 @@
         <v>3</v>
       </c>
       <c t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s">
         <v>10</v>
@@ -962,7 +968,7 @@
         <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c s="1" t="s">
         <v>43</v>
@@ -995,7 +1001,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -1008,21 +1014,21 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s">
         <v>6</v>
       </c>
       <c t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1">
       <c s="1" t="s">
-        <v>50</v>
-      </c>
-      <c s="1">
-        <v>760002431</v>
+        <v>11</v>
+      </c>
+      <c s="7" t="s">
+        <v>60</v>
       </c>
       <c s="3"/>
     </row>
@@ -1051,7 +1057,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row>
@@ -1089,19 +1095,19 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>22</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>50</v>
       </c>
     </row>
     <row>
@@ -1109,16 +1115,16 @@
         <v>7</v>
       </c>
       <c s="1" t="s">
-        <v>28</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
       </c>
       <c s="1" t="s">
         <v>8</v>
       </c>
       <c s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
